--- a/CRISP_ML(Q)_Template.xlsx
+++ b/CRISP_ML(Q)_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minfy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Inslit_HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDD4F0F-6320-49E5-A2CC-67603031BE8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43975E9-6FDD-4279-A802-57D34064D45F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" xr2:uid="{7A404FBD-A75C-430A-BC8D-B3C5C375FB24}"/>
   </bookViews>
@@ -2529,18 +2529,12 @@
     <t xml:space="preserve"> consider if needed for lightweight deployment.</t>
   </si>
   <si>
-    <t>ML suits this regression task well, using XGBoost for prediction, MLflow for tracking, Flask for deployment, with Evidently for drift monitoring.</t>
-  </si>
-  <si>
     <t>Use Evidently with Mlartifacts to track dataset changes, including cleaning, feature updates, and schema shifts, ensuring reproducibility and drift monitoring.</t>
   </si>
   <si>
     <t>Performed data validation using summary statistics, missing value checks, and outlier detection. Ensure correct data types, consistent value formats, and accurate relationships (e.g., total_salary = base + bonus + stock). Verify no duplicates, standardize job titles and currencies, and confirm that all fields align with defined data requirements.</t>
   </si>
   <si>
-    <t>Feature selection is done using RFE with RandomForest, focusing on high-impact variables and eliminating redundant or low-variance ones.</t>
-  </si>
-  <si>
     <t>Features with low relevance or constant values were dropped. Only highly correlated and meaningful features were retained for modeling.</t>
   </si>
   <si>
@@ -2565,12 +2559,6 @@
     <t>Normalization is skipped for tree-based models but applied when using LinearRegression to improve numerical feature behavior</t>
   </si>
   <si>
-    <t>Best models like RandomForest achieved R² &gt; 0.98 and MAE between 400–500 USD, indicating strong predictive performance.</t>
-  </si>
-  <si>
-    <t>RandomForest outperformed others in training speed and prediction quality. Hyperparameters were optimized using GridSearchCV</t>
-  </si>
-  <si>
     <t>The model is robust due to preprocessing steps, outlier handling, log transformation, and evaluation over multiple train-test splits</t>
   </si>
   <si>
@@ -2578,9 +2566,6 @@
   </si>
   <si>
     <t>SHAP values are used to interpret feature importance, providing transparency and aiding trust in model decisions. Logged via MLflow.</t>
-  </si>
-  <si>
-    <t>RandomForest offers a good balance of complexity and performance. LinearRegression is used as a simpler benchmark for comparison.</t>
   </si>
   <si>
     <t>The pipeline is resource-efficient, running on machines with &lt;2GB RAM and producing real-time results with response times under 2 seconds.</t>
@@ -2656,6 +2641,21 @@
   <si>
     <t xml:space="preserve">Achieve R² &gt; 0.90 and MAE &lt; $500 on test data while detecting drift in input distributions.
 </t>
+  </si>
+  <si>
+    <t>ML suits this regression task well, using HistGradientBoosting for prediction, MLflow for tracking, Flask for deployment, with Evidently for drift monitoring.</t>
+  </si>
+  <si>
+    <t>Feature selection is done using RFE with HistGradientBoosting, focusing on high-impact variables and eliminating redundant or low-variance ones.</t>
+  </si>
+  <si>
+    <t>Best models like HistGradientBoosting achieved R² &gt; 0.98 and MAE between 1192.55 - 1256.58 , indicating strong predictive performance.</t>
+  </si>
+  <si>
+    <t>HistGradientBoosting outperformed others in training speed and prediction quality. Hyperparameters were optimized using GridSearchCV</t>
+  </si>
+  <si>
+    <t>HistGradientBoosting offers a good balance of complexity and performance. LinearRegression is used as a simpler benchmark for comparison.</t>
   </si>
 </sst>
 </file>
@@ -3095,9 +3095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53966E5B-AA82-9441-962B-C80FE447C321}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -3219,7 +3219,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:23" ht="58">
+    <row r="6" spans="1:23" ht="29">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>1</v>
@@ -3277,7 +3277,7 @@
         <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -3310,7 +3310,7 @@
         <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -3356,7 +3356,7 @@
         <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3402,7 +3402,7 @@
         <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3429,7 +3429,7 @@
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.5">
@@ -3442,7 +3442,7 @@
         <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3455,7 +3455,7 @@
         <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3475,7 +3475,7 @@
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3488,7 +3488,7 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="58">
+    <row r="31" spans="1:5" ht="29">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
@@ -3508,7 +3508,7 @@
         <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3521,7 +3521,7 @@
         <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3541,7 +3541,7 @@
         <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3554,7 +3554,7 @@
         <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3583,7 +3583,7 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3596,7 +3596,7 @@
         <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3609,7 +3609,7 @@
         <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3622,7 +3622,7 @@
         <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3635,7 +3635,7 @@
         <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3648,7 +3648,7 @@
         <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3661,7 +3661,7 @@
         <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3691,7 +3691,7 @@
         <v>121</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="43.5">
@@ -3704,7 +3704,7 @@
         <v>122</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3717,7 +3717,7 @@
         <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3730,7 +3730,7 @@
         <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3750,7 +3750,7 @@
         <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="43.5">
@@ -3763,7 +3763,7 @@
         <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="58">
@@ -3776,7 +3776,7 @@
         <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3796,7 +3796,7 @@
         <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3809,7 +3809,7 @@
         <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3822,10 +3822,10 @@
         <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="58">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="29">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>53</v>
@@ -3835,7 +3835,7 @@
         <v>109</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3845,7 +3845,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="58">
+    <row r="61" spans="1:5" ht="29">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>55</v>
@@ -3855,7 +3855,7 @@
         <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3868,10 +3868,10 @@
         <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="43.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>57</v>
@@ -3881,7 +3881,7 @@
         <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3894,10 +3894,10 @@
         <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="43.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="29">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>59</v>
@@ -3907,7 +3907,7 @@
         <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3928,10 +3928,10 @@
         <v>115</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="29">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>62</v>
@@ -3941,10 +3941,10 @@
         <v>116</v>
       </c>
       <c r="E68" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="43.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>63</v>
@@ -3954,10 +3954,10 @@
         <v>117</v>
       </c>
       <c r="E69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="43.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>64</v>
@@ -3967,10 +3967,10 @@
         <v>118</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="58">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="29">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>65</v>
@@ -3980,7 +3980,7 @@
         <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3994,6 +3994,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100868BB4E47CCF6D4FA85627BA6F004419" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4ea039fed7e46a4a9237f9f7964316e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8dd943a-29f2-4471-8182-01fec6270ce3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e95ea550f5e837ed42ecac709521b437" ns2:_="">
     <xsd:import namespace="b8dd943a-29f2-4471-8182-01fec6270ce3"/>
@@ -4155,22 +4170,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296E7222-9599-4C42-A993-3573368A9024}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9F932E0-5082-4145-A88E-448DA2F97E7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67D63FE8-2503-405D-AB23-624C1228819E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4186,21 +4203,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9F932E0-5082-4145-A88E-448DA2F97E7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296E7222-9599-4C42-A993-3573368A9024}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>